--- a/output/fit_clients/fit_round_190.xlsx
+++ b/output/fit_clients/fit_round_190.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2108857128.755057</v>
+        <v>1946246830.18707</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08132221660794785</v>
+        <v>0.08362085673017558</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04289170676323313</v>
+        <v>0.0289935894834271</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1054428574.606223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2396076005.446652</v>
+        <v>2240980148.417985</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1814278906588159</v>
+        <v>0.1656767600057758</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03237067557823051</v>
+        <v>0.03316871524616169</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1198038104.097761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3317013015.958185</v>
+        <v>4548929416.928519</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1288162873764697</v>
+        <v>0.1183823562569392</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03333841493082732</v>
+        <v>0.02680071033154162</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>69</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1658506473.745839</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2623102958.803689</v>
+        <v>3582567704.912892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08214085376010435</v>
+        <v>0.09542537544916516</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03447770899317099</v>
+        <v>0.03644849931294508</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1311551574.195346</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2538384493.246721</v>
+        <v>2694831429.584296</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09238621438354851</v>
+        <v>0.120913024032644</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04729929384722553</v>
+        <v>0.04411843474934664</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1269192217.919527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2964495136.768256</v>
+        <v>2991796794.142949</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06460115533703228</v>
+        <v>0.06991202128516362</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04341909707363249</v>
+        <v>0.04370554240126651</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>59</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1482247536.645767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2741360212.377792</v>
+        <v>3041770064.662725</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1996378659173353</v>
+        <v>0.149941609541319</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0262331472609742</v>
+        <v>0.02937229005811467</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>61</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1370680137.245857</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1473373126.305634</v>
+        <v>2156928199.386451</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1941637951616788</v>
+        <v>0.1626543833170778</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03105783227965966</v>
+        <v>0.03542051924859514</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>736686662.7966355</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5677318210.399323</v>
+        <v>5721071183.767757</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1533088644349889</v>
+        <v>0.1628315335176659</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04422599220894657</v>
+        <v>0.03889614867275925</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>80</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2838659256.91964</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3071834636.82372</v>
+        <v>2966479351.489095</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1585417238676646</v>
+        <v>0.1698670839839303</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03992929331672061</v>
+        <v>0.04923765059836436</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>79</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1535917266.323607</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2815801455.193305</v>
+        <v>3316559089.640989</v>
       </c>
       <c r="F12" t="n">
-        <v>0.135390288560225</v>
+        <v>0.1852410356961104</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03967237367439488</v>
+        <v>0.04156719521423154</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>67</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1407900728.729084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3270953990.042852</v>
+        <v>5013714092.232588</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09196676935116833</v>
+        <v>0.0711252957410803</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02650966068721219</v>
+        <v>0.02748345454936103</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>64</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1635477086.954978</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3559244460.685001</v>
+        <v>2481744635.832035</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1511556579124126</v>
+        <v>0.1218150765839234</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04050648550009216</v>
+        <v>0.04364113735706581</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>61</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1779622224.266647</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1181250756.787788</v>
+        <v>1323044263.307163</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07623839287011666</v>
+        <v>0.07274571915199385</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04414932410221968</v>
+        <v>0.03262495907488341</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>590625391.6026713</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2498272864.657025</v>
+        <v>2094779784.172382</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09080411267375478</v>
+        <v>0.08216551276678573</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03307663047193113</v>
+        <v>0.03477709745054674</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1249136463.271908</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5300306941.219683</v>
+        <v>5027289200.469885</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1213455806145562</v>
+        <v>0.1413416549806819</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04483491052898631</v>
+        <v>0.03394060828581309</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>55</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2650153440.868627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3371784456.480937</v>
+        <v>3759787034.920129</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1562906454713898</v>
+        <v>0.1183579756919438</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03396533741566681</v>
+        <v>0.03425581345716692</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>62</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1685892231.613221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1049566016.232594</v>
+        <v>1091151803.285999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1784328238205151</v>
+        <v>0.1322108288879547</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01926350018827698</v>
+        <v>0.0188311260708848</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>524783049.4016176</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2251909983.933261</v>
+        <v>2685103392.088622</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1088083460203602</v>
+        <v>0.120941931107987</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02057896994674792</v>
+        <v>0.02614807412730875</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>32</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1125954991.441699</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2056440020.080804</v>
+        <v>2714718800.701302</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09189814048844354</v>
+        <v>0.09484637124229943</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0411281450374491</v>
+        <v>0.03399051031073423</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1028220040.592195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4014573681.562063</v>
+        <v>3325156045.881495</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1434930002057163</v>
+        <v>0.1103274566817668</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0395897876044376</v>
+        <v>0.0525243089979381</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2007286841.534211</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1295929633.343576</v>
+        <v>952479353.2018876</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1444233849477664</v>
+        <v>0.1327436267207147</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05270264275438639</v>
+        <v>0.0528029590812694</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>647964836.9701415</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3154200537.030314</v>
+        <v>3840559346.246204</v>
       </c>
       <c r="F24" t="n">
-        <v>0.121829562686602</v>
+        <v>0.1471043894106104</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03408866367600343</v>
+        <v>0.02660512404428598</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>56</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1577100293.373176</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1334127818.46634</v>
+        <v>1229950317.632003</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07500544161368751</v>
+        <v>0.08442634868426958</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02052256698831194</v>
+        <v>0.01961581250616167</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>667063896.3188845</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>944681293.0544835</v>
+        <v>1312672154.165627</v>
       </c>
       <c r="F26" t="n">
-        <v>0.114719823336029</v>
+        <v>0.09676227071608222</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03856613783945042</v>
+        <v>0.03175981511369954</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>472340605.0479481</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4663181369.307509</v>
+        <v>4258023430.565577</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1540386529379948</v>
+        <v>0.1573379192884277</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01832562593567014</v>
+        <v>0.01827244915845497</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2331590661.83952</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3063187828.688853</v>
+        <v>2678883218.124156</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1473241008972435</v>
+        <v>0.1323721528751506</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03325683505956854</v>
+        <v>0.04988208526786518</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>61</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1531593931.023833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4614079287.882043</v>
+        <v>4925584473.494182</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1271079216587407</v>
+        <v>0.1516719480843108</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03239358337389688</v>
+        <v>0.04317125643858835</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>85</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2307039618.186607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2289268110.845998</v>
+        <v>2062212219.267235</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1095256583441504</v>
+        <v>0.09298097166070583</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02471513145766426</v>
+        <v>0.03396075529823508</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1144634125.779182</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1054221665.158605</v>
+        <v>1019055013.862178</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1113917471416294</v>
+        <v>0.08407755020467902</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04258771742052038</v>
+        <v>0.04431661013914213</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>527110818.3274159</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1789265136.506468</v>
+        <v>1738300393.441196</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07676934414203766</v>
+        <v>0.1133085852497006</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03357721528647281</v>
+        <v>0.02915982318330611</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>894632696.5064228</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2985938970.614634</v>
+        <v>2351546135.777833</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1428025575002972</v>
+        <v>0.1795195654779263</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05963943325018037</v>
+        <v>0.03893134407078171</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>58</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1492969482.094548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1195862065.739954</v>
+        <v>1470494113.118448</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1169950163155604</v>
+        <v>0.1074685756297597</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01777436351108862</v>
+        <v>0.02279870102348222</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>597931038.5515916</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1225037065.720349</v>
+        <v>1082686782.517989</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1082882170354564</v>
+        <v>0.09927256833435502</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03875411630329212</v>
+        <v>0.03509233457704639</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>612518502.0629722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3223941456.464642</v>
+        <v>2760911637.476789</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1602608149638726</v>
+        <v>0.1460383998464289</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02122502779548997</v>
+        <v>0.02703322374332937</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>48</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1611970692.197669</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1938781034.212205</v>
+        <v>2156469746.246172</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08624291972570369</v>
+        <v>0.07747699803653811</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03409220705004323</v>
+        <v>0.03011478110097141</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>969390535.948571</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1672344683.48556</v>
+        <v>2015490270.847415</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1149591186643721</v>
+        <v>0.09598716985435128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03051748272470938</v>
+        <v>0.0296324978910594</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>836172366.6306971</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1846048662.872959</v>
+        <v>1412070874.312168</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1815163492995131</v>
+        <v>0.1640029668781015</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02931041049171531</v>
+        <v>0.02495926878661426</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>923024349.3079172</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1644364612.464514</v>
+        <v>1256012871.62</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1441091427774638</v>
+        <v>0.1263360987429131</v>
       </c>
       <c r="G40" t="n">
-        <v>0.045767648847551</v>
+        <v>0.04849573327695948</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>822182236.2781067</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1923911525.700191</v>
+        <v>2297047352.244959</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1391024300209097</v>
+        <v>0.1583158792397817</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04642697964422361</v>
+        <v>0.04139033037392428</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>47</v>
-      </c>
-      <c r="J41" t="n">
-        <v>961955844.5369002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4035731709.674383</v>
+        <v>2915411571.56802</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1086117531648663</v>
+        <v>0.1271753563040409</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04606908992185527</v>
+        <v>0.04363593926520592</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>65</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2017865886.540938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2497452701.13338</v>
+        <v>2937237433.671312</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1550763674388956</v>
+        <v>0.156584636443941</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0183573700156341</v>
+        <v>0.02444290518748426</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>65</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1248726399.470703</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1809355062.482159</v>
+        <v>1587128635.772143</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0891270202869678</v>
+        <v>0.07108387166979356</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03008851860822825</v>
+        <v>0.03405009149697633</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>904677599.5154947</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2338294674.377216</v>
+        <v>1721761515.666085</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1613236380141093</v>
+        <v>0.1871736346597789</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0488088765323773</v>
+        <v>0.03815991988813366</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1169147362.126859</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4321301136.313391</v>
+        <v>5193419251.021877</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1698120378139608</v>
+        <v>0.1718930336509507</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04147332991059429</v>
+        <v>0.04915051203184449</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>67</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2160650556.0534</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4022654512.823292</v>
+        <v>4439327804.460637</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1840960919295603</v>
+        <v>0.1486832638804047</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05483375434704575</v>
+        <v>0.04542707989063849</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>51</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2011327256.841142</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3533071851.609118</v>
+        <v>3478995832.494917</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1089552215146528</v>
+        <v>0.09042935126754452</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03818025292209941</v>
+        <v>0.03327622793551498</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1766535987.288356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1535712237.296953</v>
+        <v>1751204509.838013</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1928797985665192</v>
+        <v>0.1911506341986801</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0441258100301767</v>
+        <v>0.03818311009513279</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>767856145.0884004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3129897585.004219</v>
+        <v>2598963307.102551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1114974479412306</v>
+        <v>0.143197830933304</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04096922614594035</v>
+        <v>0.04056746950528374</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>65</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1564948843.070699</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1112362639.485136</v>
+        <v>1446062598.8548</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1403110427398353</v>
+        <v>0.1471253070593983</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04242829807988428</v>
+        <v>0.03925971957486286</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>556181385.4825339</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4834033624.042013</v>
+        <v>4440593623.675485</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1244935495923301</v>
+        <v>0.08478904684452708</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05463827976936596</v>
+        <v>0.05425220060737364</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>78</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2417016819.394068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3062304497.237961</v>
+        <v>2355036163.957249</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1370732718703848</v>
+        <v>0.131214539190743</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02643182242426591</v>
+        <v>0.02161654542377113</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>55</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1531152276.728544</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3145250735.385151</v>
+        <v>3156803997.089659</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1441115862832323</v>
+        <v>0.1437045259325987</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04528911977088351</v>
+        <v>0.04352597241552156</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>62</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1572625364.625471</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4333281998.957995</v>
+        <v>3314896011.637499</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2240348784705714</v>
+        <v>0.1349520598626528</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02525901724995773</v>
+        <v>0.03037756586648923</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2166640989.072244</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1306216485.265356</v>
+        <v>1302492831.77421</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1070382166356311</v>
+        <v>0.1290960763108831</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05382327364167361</v>
+        <v>0.0399082757672502</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>653108313.5881932</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4038225264.321663</v>
+        <v>4246753231.688382</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1723407609792239</v>
+        <v>0.1449509487837262</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01798159611813278</v>
+        <v>0.02665750466076257</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>61</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2019112723.709286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1408829534.775501</v>
+        <v>1403483037.759414</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1576100559850263</v>
+        <v>0.1959231005587461</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0395327575081118</v>
+        <v>0.02729050337772061</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>704414806.8127736</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4227404436.067721</v>
+        <v>3570879845.20792</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1094974160503698</v>
+        <v>0.09589555429524649</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04113649924197335</v>
+        <v>0.05006811020427441</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>53</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2113702182.96879</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3311476280.521415</v>
+        <v>2939759805.87546</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1635324837478399</v>
+        <v>0.166137549551429</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02040513907743417</v>
+        <v>0.02013117985290112</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1655738243.26357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2609646339.442002</v>
+        <v>2957628658.963051</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1107092883350726</v>
+        <v>0.1284704800397457</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02348785679881994</v>
+        <v>0.02078401075847021</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>66</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1304823186.977153</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1857871109.743831</v>
+        <v>1925538128.720899</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1769486703179063</v>
+        <v>0.1245125971436905</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03913221954428207</v>
+        <v>0.03203822566176893</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>928935591.6105163</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4349418801.375612</v>
+        <v>3390107084.007293</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06808387830303358</v>
+        <v>0.07267926939867339</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0307447351653959</v>
+        <v>0.04508009008684977</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>54</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2174709447.459281</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5029429585.95002</v>
+        <v>3861923997.59329</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1700810429652837</v>
+        <v>0.1832582260603181</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02184762677828667</v>
+        <v>0.03031426090594256</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>59</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2514714901.221713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5600545847.646349</v>
+        <v>5475692865.584328</v>
       </c>
       <c r="F65" t="n">
-        <v>0.145583184594088</v>
+        <v>0.1561391722465913</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02537382608423751</v>
+        <v>0.01948478898154171</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>69</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2800272846.862782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4299919408.352315</v>
+        <v>5620350546.505088</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1465604066915944</v>
+        <v>0.1587447966236144</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03249650576921376</v>
+        <v>0.03973030607373258</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>55</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2149959693.803343</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3502618426.048553</v>
+        <v>3137380593.987648</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08108560600882754</v>
+        <v>0.08985348520700662</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04598983616955618</v>
+        <v>0.04919475819018523</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>61</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1751309188.718166</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4100024801.057486</v>
+        <v>5412463005.306998</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1363305387825062</v>
+        <v>0.09662449744044736</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03710873373859389</v>
+        <v>0.03332760233927558</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>61</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2050012402.359293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2283100556.789175</v>
+        <v>1904936752.622905</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1188089862611021</v>
+        <v>0.1679241997137551</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04240869663849066</v>
+        <v>0.0594500031048906</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1141550319.913795</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3695836598.652909</v>
+        <v>3165030313.258984</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07692136341817804</v>
+        <v>0.07978521339734231</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03648982413305513</v>
+        <v>0.04586903458195015</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>54</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1847918321.558545</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4208504454.130192</v>
+        <v>4589447416.19266</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1464455779437503</v>
+        <v>0.1816173993831958</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02135534555614053</v>
+        <v>0.03226642246747388</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>69</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2104252273.688362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2252424687.205842</v>
+        <v>2208516491.648489</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09245802349873307</v>
+        <v>0.09764572507099868</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04814631094811113</v>
+        <v>0.03716958577920628</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1126212249.224336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2255740681.510567</v>
+        <v>2158444014.638879</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1058384566918267</v>
+        <v>0.1001370260879656</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03973459375437004</v>
+        <v>0.04882720627947298</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>72</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1127870404.853828</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3895425975.22549</v>
+        <v>3873356481.810534</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1721220526860196</v>
+        <v>0.1816587315518932</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02953548076190716</v>
+        <v>0.02138898915451185</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>65</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1947712975.591097</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2379560235.493509</v>
+        <v>2320112224.911452</v>
       </c>
       <c r="F75" t="n">
-        <v>0.159785856475726</v>
+        <v>0.147434691052435</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03104122688391335</v>
+        <v>0.03725350990347599</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1189780046.275108</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3830821230.871557</v>
+        <v>3598402698.877491</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1102324441951882</v>
+        <v>0.1048429459460365</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03187629958002593</v>
+        <v>0.02061022813624055</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1915410593.061664</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1633264253.934654</v>
+        <v>1654935300.865026</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1275659632427005</v>
+        <v>0.1404265054879733</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03071043905320912</v>
+        <v>0.02927288016652316</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>816632134.277851</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4423964504.118267</v>
+        <v>3388219001.691233</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1140932132391277</v>
+        <v>0.1038296082375917</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04208175935552732</v>
+        <v>0.03785969595995625</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>66</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2211982187.436707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1201683170.162418</v>
+        <v>1428529191.317443</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1315902311297775</v>
+        <v>0.1278767980014622</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03856334219789593</v>
+        <v>0.02784796187917068</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>600841567.088269</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3438891353.681412</v>
+        <v>4009033733.569021</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08258836472760281</v>
+        <v>0.1022456526464449</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02665907977195238</v>
+        <v>0.02506641202619292</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>40</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1719445648.389455</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4095240387.636537</v>
+        <v>4644024724.999519</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1092338093684681</v>
+        <v>0.1230935342454795</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02118938707909774</v>
+        <v>0.02231947332958351</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2047620160.551444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3713974798.673543</v>
+        <v>3711651844.52638</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2053281240502012</v>
+        <v>0.1761628361383538</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0292632601317601</v>
+        <v>0.02497378169879529</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>68</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1856987455.004611</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2374216615.314803</v>
+        <v>2289530073.639755</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09548735742371731</v>
+        <v>0.1241466446092355</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03664525600272951</v>
+        <v>0.03779514772991847</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1187108339.479617</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2504469151.630092</v>
+        <v>2590790568.814047</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08230211828856625</v>
+        <v>0.07669312416813157</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03523195504023246</v>
+        <v>0.03351986005595718</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1252234506.903668</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2399634925.727068</v>
+        <v>2553971641.342643</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1330992734143858</v>
+        <v>0.133344813790701</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04587689523002414</v>
+        <v>0.04777643727807872</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>71</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1199817456.712957</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1882392354.65095</v>
+        <v>2535442067.393845</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1082446110830314</v>
+        <v>0.1309227139303693</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02569712427403481</v>
+        <v>0.0197548408093785</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26</v>
-      </c>
-      <c r="J86" t="n">
-        <v>941196188.5509559</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1509181944.330177</v>
+        <v>1394837197.54812</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1180428480312362</v>
+        <v>0.1534579647283431</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03765452774442369</v>
+        <v>0.04189387895879803</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>754591106.9802653</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3640286042.375851</v>
+        <v>3526977646.589373</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1193493463524529</v>
+        <v>0.1604624694050955</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0355123784656981</v>
+        <v>0.03389461680108114</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>75</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1820143114.877633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3173338885.904447</v>
+        <v>2367673010.75811</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1484319685799393</v>
+        <v>0.1012193164517269</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0332218915494406</v>
+        <v>0.03324803435172093</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>64</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1586669468.344359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1501393517.811733</v>
+        <v>1523899062.256542</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09186709555170537</v>
+        <v>0.1295004783449011</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04826636301907782</v>
+        <v>0.04451642496257204</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>750696737.8964044</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2048814363.151099</v>
+        <v>2057236161.212075</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1459057934249565</v>
+        <v>0.147427736355618</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03970855435740406</v>
+        <v>0.04078953138856632</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1024407147.318673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2068878114.56826</v>
+        <v>2682430850.627216</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09797334775947998</v>
+        <v>0.08954187212607538</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03927869249716504</v>
+        <v>0.04717805765568808</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>47</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1034439008.680234</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4934016909.368425</v>
+        <v>3281270551.376581</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1086578195439229</v>
+        <v>0.1138269060555021</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04659222433869183</v>
+        <v>0.03816198762046342</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>56</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2467008394.8875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1778926128.297231</v>
+        <v>1638566891.709676</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1651440894938025</v>
+        <v>0.1307865814531764</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03447875790847721</v>
+        <v>0.03945749480168327</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>889463033.6873174</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2031551378.275082</v>
+        <v>2115087735.947119</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08842964832377349</v>
+        <v>0.1187574863196177</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04868474149863015</v>
+        <v>0.0327919795645803</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>45</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1015775759.286983</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1906051333.327311</v>
+        <v>2109728538.125009</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1356947697760423</v>
+        <v>0.1384299726582288</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03915526617756385</v>
+        <v>0.04041022054357263</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>953025663.6415691</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5307196608.489426</v>
+        <v>3410134804.796968</v>
       </c>
       <c r="F97" t="n">
-        <v>0.133914878244012</v>
+        <v>0.1157437517178961</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01821228094680842</v>
+        <v>0.02752658239248108</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>63</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2653598465.722319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3570202712.122012</v>
+        <v>2528593663.194329</v>
       </c>
       <c r="F98" t="n">
-        <v>0.094900258515625</v>
+        <v>0.08397428238285268</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02988808616375097</v>
+        <v>0.03002165311802447</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>50</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1785101379.389126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2322251880.385854</v>
+        <v>2853199205.318312</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1366264232038998</v>
+        <v>0.1388769578161921</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0261587442102974</v>
+        <v>0.02841740002848178</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>59</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1161125876.989833</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4168077073.162044</v>
+        <v>4492830104.670315</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1628142411840656</v>
+        <v>0.1101587190075353</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02741836364261818</v>
+        <v>0.02695116565039118</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>58</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2084038620.640298</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2620655329.883147</v>
+        <v>3144857679.628336</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1766123755169757</v>
+        <v>0.1955922623079244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04064226158356687</v>
+        <v>0.04652670530107918</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>76</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1310327703.885638</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_190.xlsx
+++ b/output/fit_clients/fit_round_190.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1946246830.18707</v>
+        <v>2404324501.584975</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08362085673017558</v>
+        <v>0.1113697096594844</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0289935894834271</v>
+        <v>0.02814437760780862</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2240980148.417985</v>
+        <v>1792852227.809527</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1656767600057758</v>
+        <v>0.1694728072156921</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03316871524616169</v>
+        <v>0.04143350567993406</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4548929416.928519</v>
+        <v>4805169982.939465</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1183823562569392</v>
+        <v>0.1647498450257115</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02680071033154162</v>
+        <v>0.02501916657200396</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3582567704.912892</v>
+        <v>3451092342.119541</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09542537544916516</v>
+        <v>0.07824851990480551</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03644849931294508</v>
+        <v>0.04734958882517171</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2694831429.584296</v>
+        <v>2212277186.998426</v>
       </c>
       <c r="F6" t="n">
-        <v>0.120913024032644</v>
+        <v>0.1435134521613812</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04411843474934664</v>
+        <v>0.05525487138428897</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2991796794.142949</v>
+        <v>2208834476.517847</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06991202128516362</v>
+        <v>0.08860242814815114</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04370554240126651</v>
+        <v>0.04233039215131675</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3041770064.662725</v>
+        <v>2712838568.531687</v>
       </c>
       <c r="F8" t="n">
-        <v>0.149941609541319</v>
+        <v>0.2021817703743618</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02937229005811467</v>
+        <v>0.02563838749104831</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2156928199.386451</v>
+        <v>1840629499.556137</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1626543833170778</v>
+        <v>0.1398128132856314</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03542051924859514</v>
+        <v>0.02955410696810111</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5721071183.767757</v>
+        <v>5325980347.106533</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1628315335176659</v>
+        <v>0.2050196585703049</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03889614867275925</v>
+        <v>0.03550572915721469</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2966479351.489095</v>
+        <v>2725640669.488233</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1698670839839303</v>
+        <v>0.1420179102033446</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04923765059836436</v>
+        <v>0.04171985966627213</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3316559089.640989</v>
+        <v>2106686684.801822</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1852410356961104</v>
+        <v>0.1433186963297374</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04156719521423154</v>
+        <v>0.03368939594065548</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5013714092.232588</v>
+        <v>4189645288.320938</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0711252957410803</v>
+        <v>0.07700064743694342</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02748345454936103</v>
+        <v>0.02580915677990871</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2481744635.832035</v>
+        <v>3046572228.934279</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1218150765839234</v>
+        <v>0.1465223519508548</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04364113735706581</v>
+        <v>0.03085994902146286</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1323044263.307163</v>
+        <v>1128130907.794101</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07274571915199385</v>
+        <v>0.08404157008516951</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03262495907488341</v>
+        <v>0.04497400357668674</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2094779784.172382</v>
+        <v>2520816654.754148</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08216551276678573</v>
+        <v>0.112414475237722</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03477709745054674</v>
+        <v>0.0472138251244231</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5027289200.469885</v>
+        <v>5187267956.895148</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1413416549806819</v>
+        <v>0.1437855112950403</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03394060828581309</v>
+        <v>0.03649417034180812</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3759787034.920129</v>
+        <v>3150624797.785179</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1183579756919438</v>
+        <v>0.1216720118267663</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03425581345716692</v>
+        <v>0.02423857310878929</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1091151803.285999</v>
+        <v>918552474.5940691</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1322108288879547</v>
+        <v>0.1490890509575068</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0188311260708848</v>
+        <v>0.02054402249397437</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2685103392.088622</v>
+        <v>2017160605.992021</v>
       </c>
       <c r="F20" t="n">
-        <v>0.120941931107987</v>
+        <v>0.1446739488084553</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02614807412730875</v>
+        <v>0.02252503604835392</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2714718800.701302</v>
+        <v>2515842719.858621</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09484637124229943</v>
+        <v>0.06751567691394214</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03399051031073423</v>
+        <v>0.03794682263970371</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3325156045.881495</v>
+        <v>3741313022.926922</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1103274566817668</v>
+        <v>0.1094354793403391</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0525243089979381</v>
+        <v>0.0472038329196122</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>952479353.2018876</v>
+        <v>1323824375.341132</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1327436267207147</v>
+        <v>0.1462222336596506</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0528029590812694</v>
+        <v>0.04056239068359593</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3840559346.246204</v>
+        <v>3724465856.352064</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1471043894106104</v>
+        <v>0.1476441966316875</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02660512404428598</v>
+        <v>0.03666299176298421</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1229950317.632003</v>
+        <v>1388929846.543549</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08442634868426958</v>
+        <v>0.09994962618541856</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01961581250616167</v>
+        <v>0.02256164815676047</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1312672154.165627</v>
+        <v>910477855.6826044</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09676227071608222</v>
+        <v>0.07917819706853522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03175981511369954</v>
+        <v>0.02465627293626737</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4258023430.565577</v>
+        <v>3243680868.383734</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1573379192884277</v>
+        <v>0.1071046306178161</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01827244915845497</v>
+        <v>0.0226305819373085</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2678883218.124156</v>
+        <v>3900956162.748954</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1323721528751506</v>
+        <v>0.1020364740926179</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04988208526786518</v>
+        <v>0.03464023093189633</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4925584473.494182</v>
+        <v>4474796304.108618</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1516719480843108</v>
+        <v>0.1100506520802002</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04317125643858835</v>
+        <v>0.03362719426233875</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2062212219.267235</v>
+        <v>1450480225.571619</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09298097166070583</v>
+        <v>0.1236435255681692</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03396075529823508</v>
+        <v>0.03289108551129469</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1019055013.862178</v>
+        <v>1284897503.628274</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08407755020467902</v>
+        <v>0.1069793367292707</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04431661013914213</v>
+        <v>0.0421348800439175</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1738300393.441196</v>
+        <v>1828057463.844779</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1133085852497006</v>
+        <v>0.07569814347215954</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02915982318330611</v>
+        <v>0.02484300026356923</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2351546135.777833</v>
+        <v>2439789842.4988</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1795195654779263</v>
+        <v>0.1280939066111813</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03893134407078171</v>
+        <v>0.05657429480198544</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1470494113.118448</v>
+        <v>1186723101.793264</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1074685756297597</v>
+        <v>0.119384983250875</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02279870102348222</v>
+        <v>0.02227392771609945</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1082686782.517989</v>
+        <v>849102582.4025892</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09927256833435502</v>
+        <v>0.104563598672407</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03509233457704639</v>
+        <v>0.03384100557577658</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2760911637.476789</v>
+        <v>2342972504.92346</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1460383998464289</v>
+        <v>0.1275328923002956</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02703322374332937</v>
+        <v>0.01880374462941601</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2156469746.246172</v>
+        <v>2867777799.328075</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07747699803653811</v>
+        <v>0.1119172438201376</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03011478110097141</v>
+        <v>0.03410648224519715</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2015490270.847415</v>
+        <v>1763233521.122428</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09598716985435128</v>
+        <v>0.1107665697651848</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0296324978910594</v>
+        <v>0.03592562624821358</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1412070874.312168</v>
+        <v>1540858630.455856</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1640029668781015</v>
+        <v>0.1199846221903748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02495926878661426</v>
+        <v>0.02152155101744639</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1256012871.62</v>
+        <v>1592599763.801713</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1263360987429131</v>
+        <v>0.1275411030266013</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04849573327695948</v>
+        <v>0.04295427164952041</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2297047352.244959</v>
+        <v>1773385684.244754</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1583158792397817</v>
+        <v>0.1412652660380405</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04139033037392428</v>
+        <v>0.03539825263640186</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2915411571.56802</v>
+        <v>3978607745.693002</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1271753563040409</v>
+        <v>0.1147602447164548</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04363593926520592</v>
+        <v>0.03600719283684212</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2937237433.671312</v>
+        <v>2037133836.69671</v>
       </c>
       <c r="F43" t="n">
-        <v>0.156584636443941</v>
+        <v>0.1372764105947997</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02444290518748426</v>
+        <v>0.01945753865614089</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1587128635.772143</v>
+        <v>1834975437.664141</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07108387166979356</v>
+        <v>0.06249403579668975</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03405009149697633</v>
+        <v>0.03637612161797035</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1721761515.666085</v>
+        <v>2377034869.07514</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1871736346597789</v>
+        <v>0.1488543133506115</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03815991988813366</v>
+        <v>0.05592579067127645</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5193419251.021877</v>
+        <v>5144367764.997973</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1718930336509507</v>
+        <v>0.1785355410577608</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04915051203184449</v>
+        <v>0.04643835698427021</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4439327804.460637</v>
+        <v>3513394606.187</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1486832638804047</v>
+        <v>0.1463301037508628</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04542707989063849</v>
+        <v>0.04491479537185646</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3478995832.494917</v>
+        <v>2892121276.427182</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09042935126754452</v>
+        <v>0.08057451936488391</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03327622793551498</v>
+        <v>0.03566008585839243</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1751204509.838013</v>
+        <v>1575555633.448447</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1911506341986801</v>
+        <v>0.1584342619708568</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03818311009513279</v>
+        <v>0.04352466535338124</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2598963307.102551</v>
+        <v>3952602050.840469</v>
       </c>
       <c r="F50" t="n">
-        <v>0.143197830933304</v>
+        <v>0.1075035510584665</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04056746950528374</v>
+        <v>0.03495802682219156</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1446062598.8548</v>
+        <v>1156695368.443751</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1471253070593983</v>
+        <v>0.1386058395266999</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03925971957486286</v>
+        <v>0.04368235485478031</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4440593623.675485</v>
+        <v>3272585784.201146</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08478904684452708</v>
+        <v>0.1374005165177753</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05425220060737364</v>
+        <v>0.05435144072418182</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2355036163.957249</v>
+        <v>2479095591.210246</v>
       </c>
       <c r="F53" t="n">
-        <v>0.131214539190743</v>
+        <v>0.1289000828543569</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02161654542377113</v>
+        <v>0.02822902143857672</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3156803997.089659</v>
+        <v>4344694002.286258</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1437045259325987</v>
+        <v>0.1332578869503872</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04352597241552156</v>
+        <v>0.03449670617263317</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3314896011.637499</v>
+        <v>3448531434.744005</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1349520598626528</v>
+        <v>0.1564130483291546</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03037756586648923</v>
+        <v>0.03148584401162313</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1302492831.77421</v>
+        <v>1342576993.336841</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1290960763108831</v>
+        <v>0.1340521436563927</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0399082757672502</v>
+        <v>0.03667767608357818</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4246753231.688382</v>
+        <v>2837262791.333441</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1449509487837262</v>
+        <v>0.1760135940071292</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02665750466076257</v>
+        <v>0.02502025174607355</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1403483037.759414</v>
+        <v>1605066399.48888</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1959231005587461</v>
+        <v>0.1408434675052603</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02729050337772061</v>
+        <v>0.03868814983452958</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3570879845.20792</v>
+        <v>3318659762.57668</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09589555429524649</v>
+        <v>0.1097793434517521</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05006811020427441</v>
+        <v>0.03285386322433693</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2939759805.87546</v>
+        <v>3365335338.735059</v>
       </c>
       <c r="F60" t="n">
-        <v>0.166137549551429</v>
+        <v>0.1833178029774891</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02013117985290112</v>
+        <v>0.03087767182124662</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2957628658.963051</v>
+        <v>3117643572.893744</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1284704800397457</v>
+        <v>0.1647569357141776</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02078401075847021</v>
+        <v>0.02950223847827415</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1925538128.720899</v>
+        <v>1778892963.72423</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1245125971436905</v>
+        <v>0.1450469766881629</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03203822566176893</v>
+        <v>0.03102075696601508</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3390107084.007293</v>
+        <v>3671687448.396935</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07267926939867339</v>
+        <v>0.07512506794268145</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04508009008684977</v>
+        <v>0.04306470102870254</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3861923997.59329</v>
+        <v>5238675370.191468</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1832582260603181</v>
+        <v>0.1774392167032117</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03031426090594256</v>
+        <v>0.02572823465362238</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5475692865.584328</v>
+        <v>3921124436.298195</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1561391722465913</v>
+        <v>0.1391121843093033</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01948478898154171</v>
+        <v>0.0203283198508487</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5620350546.505088</v>
+        <v>4516602687.073769</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1587447966236144</v>
+        <v>0.118157464815477</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03973030607373258</v>
+        <v>0.04817590521391193</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3137380593.987648</v>
+        <v>3238390556.077583</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08985348520700662</v>
+        <v>0.06908499758902621</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04919475819018523</v>
+        <v>0.03404760052313916</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5412463005.306998</v>
+        <v>4079535722.156067</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09662449744044736</v>
+        <v>0.1359108208542189</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03332760233927558</v>
+        <v>0.04494004339401109</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1904936752.622905</v>
+        <v>2136672302.527226</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1679241997137551</v>
+        <v>0.1255541850328383</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0594500031048906</v>
+        <v>0.04350372225281522</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3165030313.258984</v>
+        <v>2292812023.566874</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07978521339734231</v>
+        <v>0.09048215712694067</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04586903458195015</v>
+        <v>0.03091865006712023</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4589447416.19266</v>
+        <v>3801516092.682421</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1816173993831958</v>
+        <v>0.1300045261243785</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03226642246747388</v>
+        <v>0.02182433438948778</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2208516491.648489</v>
+        <v>2262485499.333408</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09764572507099868</v>
+        <v>0.1063906734236603</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03716958577920628</v>
+        <v>0.03369625172306889</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2158444014.638879</v>
+        <v>2432630438.409758</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1001370260879656</v>
+        <v>0.09560839704108236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04882720627947298</v>
+        <v>0.04905533715373431</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3873356481.810534</v>
+        <v>3072720317.522297</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1816587315518932</v>
+        <v>0.1594307306326063</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02138898915451185</v>
+        <v>0.02958142868328595</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2320112224.911452</v>
+        <v>2069980010.944968</v>
       </c>
       <c r="F75" t="n">
-        <v>0.147434691052435</v>
+        <v>0.1650693895344518</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03725350990347599</v>
+        <v>0.02479471191712817</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3598402698.877491</v>
+        <v>4836024125.592125</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1048429459460365</v>
+        <v>0.09287793596023303</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02061022813624055</v>
+        <v>0.03121900627473198</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1654935300.865026</v>
+        <v>1402479011.985703</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1404265054879733</v>
+        <v>0.1576123710276754</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02927288016652316</v>
+        <v>0.02714750477443005</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3388219001.691233</v>
+        <v>3130502736.398255</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1038296082375917</v>
+        <v>0.1064937210613995</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03785969595995625</v>
+        <v>0.05508933163031481</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1428529191.317443</v>
+        <v>1253858324.87227</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1278767980014622</v>
+        <v>0.1509339538599969</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02784796187917068</v>
+        <v>0.02459325680970442</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4009033733.569021</v>
+        <v>3929524213.525925</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1022456526464449</v>
+        <v>0.09426593840371279</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02506641202619292</v>
+        <v>0.02755937915544895</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4644024724.999519</v>
+        <v>3393433982.99336</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1230935342454795</v>
+        <v>0.08660392804423515</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02231947332958351</v>
+        <v>0.02160606170767761</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3711651844.52638</v>
+        <v>5055558153.359489</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1761628361383538</v>
+        <v>0.1704896855760765</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02497378169879529</v>
+        <v>0.02577847524922495</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2289530073.639755</v>
+        <v>1671495699.185587</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1241466446092355</v>
+        <v>0.1018573410082139</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03779514772991847</v>
+        <v>0.034794954083381</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2590790568.814047</v>
+        <v>2594225876.431746</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07669312416813157</v>
+        <v>0.1177015007054574</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03351986005595718</v>
+        <v>0.04495224233291119</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2553971641.342643</v>
+        <v>2599357680.547658</v>
       </c>
       <c r="F85" t="n">
-        <v>0.133344813790701</v>
+        <v>0.1529819631048145</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04777643727807872</v>
+        <v>0.04631412250617868</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2535442067.393845</v>
+        <v>2702465068.272705</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1309227139303693</v>
+        <v>0.1239461007473945</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0197548408093785</v>
+        <v>0.02282730733829446</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1394837197.54812</v>
+        <v>1327466947.48428</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1534579647283431</v>
+        <v>0.1586934475538799</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04189387895879803</v>
+        <v>0.04144728930567625</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3526977646.589373</v>
+        <v>2465946818.106498</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1604624694050955</v>
+        <v>0.1468488501061751</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03389461680108114</v>
+        <v>0.02520874956307918</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2367673010.75811</v>
+        <v>2662944459.610536</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1012193164517269</v>
+        <v>0.1422181364812508</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03324803435172093</v>
+        <v>0.02950562023712976</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1523899062.256542</v>
+        <v>1777462268.618885</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1295004783449011</v>
+        <v>0.1273910583081336</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04451642496257204</v>
+        <v>0.0544619492637586</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2057236161.212075</v>
+        <v>1657786011.396009</v>
       </c>
       <c r="F91" t="n">
-        <v>0.147427736355618</v>
+        <v>0.1364266979532938</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04078953138856632</v>
+        <v>0.04525456201487976</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2682430850.627216</v>
+        <v>2871819443.132424</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08954187212607538</v>
+        <v>0.08180838080597569</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04717805765568808</v>
+        <v>0.03255185204655759</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3281270551.376581</v>
+        <v>3035155593.61767</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1138269060555021</v>
+        <v>0.1045437200011941</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03816198762046342</v>
+        <v>0.04556828401993577</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1638566891.709676</v>
+        <v>1961125464.292064</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1307865814531764</v>
+        <v>0.1654413253714831</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03945749480168327</v>
+        <v>0.03034544118138519</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2115087735.947119</v>
+        <v>2941298558.262179</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1187574863196177</v>
+        <v>0.1060156511202088</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0327919795645803</v>
+        <v>0.03325995248701651</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2109728538.125009</v>
+        <v>2245413427.538986</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1384299726582288</v>
+        <v>0.1065137119858575</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04041022054357263</v>
+        <v>0.02875539292171825</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3410134804.796968</v>
+        <v>3718639495.151101</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1157437517178961</v>
+        <v>0.1288507739299806</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02752658239248108</v>
+        <v>0.02414496312374597</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2528593663.194329</v>
+        <v>3579951045.864494</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08397428238285268</v>
+        <v>0.09608272507411608</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03002165311802447</v>
+        <v>0.0207177932249589</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2853199205.318312</v>
+        <v>2081457913.449583</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1388769578161921</v>
+        <v>0.1121733788640025</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02841740002848178</v>
+        <v>0.02253857459289154</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4492830104.670315</v>
+        <v>4749017057.936702</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1101587190075353</v>
+        <v>0.1303132663110355</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02695116565039118</v>
+        <v>0.0240276775013507</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3144857679.628336</v>
+        <v>3447307909.464097</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1955922623079244</v>
+        <v>0.1603412877068078</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04652670530107918</v>
+        <v>0.04039203243752641</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_190.xlsx
+++ b/output/fit_clients/fit_round_190.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2404324501.584975</v>
+        <v>1670516578.579273</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1113697096594844</v>
+        <v>0.09566211187944718</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02814437760780862</v>
+        <v>0.03071954182532536</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1792852227.809527</v>
+        <v>2284413702.493314</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1694728072156921</v>
+        <v>0.1256928400390056</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04143350567993406</v>
+        <v>0.0383954301842352</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4805169982.939465</v>
+        <v>4704878715.115833</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1647498450257115</v>
+        <v>0.1208920537034212</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02501916657200396</v>
+        <v>0.03639911184082322</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>105</v>
+      </c>
+      <c r="J4" t="n">
+        <v>190</v>
+      </c>
+      <c r="K4" t="n">
+        <v>122.1585486502726</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3451092342.119541</v>
+        <v>3783012408.607319</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07824851990480551</v>
+        <v>0.1022549385964504</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04734958882517171</v>
+        <v>0.03781754129047536</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>78</v>
+      </c>
+      <c r="J5" t="n">
+        <v>190</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2212277186.998426</v>
+        <v>2159361627.165161</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1435134521613812</v>
+        <v>0.1046123656888322</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05525487138428897</v>
+        <v>0.03523344995277533</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2208834476.517847</v>
+        <v>2042901935.247709</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08860242814815114</v>
+        <v>0.09615561443169193</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04233039215131675</v>
+        <v>0.03491259685443698</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2712838568.531687</v>
+        <v>3978224617.274127</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2021817703743618</v>
+        <v>0.1893440500595866</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02563838749104831</v>
+        <v>0.03173565644788293</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>53</v>
+      </c>
+      <c r="J8" t="n">
+        <v>190</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1840629499.556137</v>
+        <v>2251470733.569574</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1398128132856314</v>
+        <v>0.1888649904807893</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02955410696810111</v>
+        <v>0.02492510939989076</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5325980347.106533</v>
+        <v>5725672408.343181</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2050196585703049</v>
+        <v>0.1910161780408221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03550572915721469</v>
+        <v>0.04147364342750989</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>173</v>
+      </c>
+      <c r="J10" t="n">
+        <v>190</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2725640669.488233</v>
+        <v>3309499846.908575</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1420179102033446</v>
+        <v>0.1332097974034056</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04171985966627213</v>
+        <v>0.04905705955968136</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>78</v>
+      </c>
+      <c r="J11" t="n">
+        <v>188</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2106686684.801822</v>
+        <v>2885943751.635124</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1433186963297374</v>
+        <v>0.1648970728819986</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03368939594065548</v>
+        <v>0.05081354622605209</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4189645288.320938</v>
+        <v>3795593948.077316</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07700064743694342</v>
+        <v>0.08870874129702869</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02580915677990871</v>
+        <v>0.02286872615909354</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>95</v>
+      </c>
+      <c r="J13" t="n">
+        <v>189</v>
+      </c>
+      <c r="K13" t="n">
+        <v>118.6462731991395</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +925,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3046572228.934279</v>
+        <v>3620103289.027614</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1465223519508548</v>
+        <v>0.1353913090015691</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03085994902146286</v>
+        <v>0.0281186520274214</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>36</v>
+      </c>
+      <c r="J14" t="n">
+        <v>189</v>
+      </c>
+      <c r="K14" t="n">
+        <v>109.0997723182679</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1128130907.794101</v>
+        <v>1231634753.935397</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08404157008516951</v>
+        <v>0.06598626027970284</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04497400357668674</v>
+        <v>0.03584469123423935</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2520816654.754148</v>
+        <v>1770572482.139104</v>
       </c>
       <c r="F16" t="n">
-        <v>0.112414475237722</v>
+        <v>0.07320155777464386</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0472138251244231</v>
+        <v>0.03323639511251063</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5187267956.895148</v>
+        <v>3349520724.952322</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1437855112950403</v>
+        <v>0.1204500342901243</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03649417034180812</v>
+        <v>0.04138900406786161</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>91</v>
+      </c>
+      <c r="J17" t="n">
+        <v>188</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3150624797.785179</v>
+        <v>2814731332.876309</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1216720118267663</v>
+        <v>0.1778293334015003</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02423857310878929</v>
+        <v>0.03415862906165571</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>48</v>
+      </c>
+      <c r="J18" t="n">
+        <v>187</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>918552474.5940691</v>
+        <v>1101029396.380089</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1490890509575068</v>
+        <v>0.1445308650538078</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02054402249397437</v>
+        <v>0.024388752149088</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2017160605.992021</v>
+        <v>1910368613.268446</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1446739488084553</v>
+        <v>0.116254520526979</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02252503604835392</v>
+        <v>0.02097955703431424</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2515842719.858621</v>
+        <v>1716198180.787666</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06751567691394214</v>
+        <v>0.08826026776066336</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03794682263970371</v>
+        <v>0.02845804435603904</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3741313022.926922</v>
+        <v>3134295822.358099</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1094354793403391</v>
+        <v>0.09151864789864878</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0472038329196122</v>
+        <v>0.0493819112120668</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>48</v>
+      </c>
+      <c r="J22" t="n">
+        <v>187</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1323824375.341132</v>
+        <v>1217527057.45207</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1462222336596506</v>
+        <v>0.1547598397844626</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04056239068359593</v>
+        <v>0.03560510849806817</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3724465856.352064</v>
+        <v>3402123026.041429</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1476441966316875</v>
+        <v>0.1469029537608992</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03666299176298421</v>
+        <v>0.02348734373714697</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>60</v>
+      </c>
+      <c r="J24" t="n">
+        <v>189</v>
+      </c>
+      <c r="K24" t="n">
+        <v>88.64170895463187</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1388929846.543549</v>
+        <v>1250914204.530523</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09994962618541856</v>
+        <v>0.1081461113570089</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02256164815676047</v>
+        <v>0.03015870910173008</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>910477855.6826044</v>
+        <v>898515012.7777892</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07917819706853522</v>
+        <v>0.1180741589980075</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02465627293626737</v>
+        <v>0.02627273487893168</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3243680868.383734</v>
+        <v>4392801565.82111</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1071046306178161</v>
+        <v>0.1157289560089656</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0226305819373085</v>
+        <v>0.02178115141735254</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>75</v>
+      </c>
+      <c r="J27" t="n">
+        <v>190</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3900956162.748954</v>
+        <v>2767063196.259872</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1020364740926179</v>
+        <v>0.09154038558032754</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03464023093189633</v>
+        <v>0.04704564638240955</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>38</v>
+      </c>
+      <c r="J28" t="n">
+        <v>185</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4474796304.108618</v>
+        <v>4272011498.485179</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1100506520802002</v>
+        <v>0.1079829206555277</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03362719426233875</v>
+        <v>0.03494077231869134</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>179</v>
+      </c>
+      <c r="J29" t="n">
+        <v>190</v>
+      </c>
+      <c r="K29" t="n">
+        <v>140.7944897196057</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1450480225.571619</v>
+        <v>1934521637.37109</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1236435255681692</v>
+        <v>0.1399033533922001</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03289108551129469</v>
+        <v>0.03293222331761166</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1284897503.628274</v>
+        <v>1340754726.104717</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1069793367292707</v>
+        <v>0.09710184266830417</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0421348800439175</v>
+        <v>0.04040272378384623</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1828057463.844779</v>
+        <v>1744436860.418839</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07569814347215954</v>
+        <v>0.1205017002488167</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02484300026356923</v>
+        <v>0.0260207613882104</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2439789842.4988</v>
+        <v>2071484294.907014</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1280939066111813</v>
+        <v>0.1456804526322149</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05657429480198544</v>
+        <v>0.05509883140311315</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1186723101.793264</v>
+        <v>1093822914.353611</v>
       </c>
       <c r="F34" t="n">
-        <v>0.119384983250875</v>
+        <v>0.08720594572238116</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02227392771609945</v>
+        <v>0.02453309113459067</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>849102582.4025892</v>
+        <v>1194601153.545889</v>
       </c>
       <c r="F35" t="n">
-        <v>0.104563598672407</v>
+        <v>0.1075188301955212</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03384100557577658</v>
+        <v>0.03832239486073328</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2342972504.92346</v>
+        <v>2126420221.485882</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1275328923002956</v>
+        <v>0.1291176475601173</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01880374462941601</v>
+        <v>0.02650277859954785</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2867777799.328075</v>
+        <v>1795011196.12545</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1119172438201376</v>
+        <v>0.09442502822666332</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03410648224519715</v>
+        <v>0.02668904347280018</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1763233521.122428</v>
+        <v>1996560048.214345</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1107665697651848</v>
+        <v>0.1189474613567455</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03592562624821358</v>
+        <v>0.03416779181651145</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1540858630.455856</v>
+        <v>2212747707.778004</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1199846221903748</v>
+        <v>0.175462845184539</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02152155101744639</v>
+        <v>0.0257490006687423</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1592599763.801713</v>
+        <v>1218823396.712165</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1275411030266013</v>
+        <v>0.123187094193923</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04295427164952041</v>
+        <v>0.04614738378061574</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1773385684.244754</v>
+        <v>1875157519.110298</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1412652660380405</v>
+        <v>0.1424203892411764</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03539825263640186</v>
+        <v>0.0433763735092278</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3978607745.693002</v>
+        <v>4328925851.38781</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1147602447164548</v>
+        <v>0.09722596522074374</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03600719283684212</v>
+        <v>0.0298520649666052</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>72</v>
+      </c>
+      <c r="J42" t="n">
+        <v>190</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2037133836.69671</v>
+        <v>2123989002.701318</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1372764105947997</v>
+        <v>0.1742536715923653</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01945753865614089</v>
+        <v>0.02177951240184177</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1834975437.664141</v>
+        <v>1878088214.300532</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06249403579668975</v>
+        <v>0.06792434059376017</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03637612161797035</v>
+        <v>0.03393408093319564</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2377034869.07514</v>
+        <v>2428091524.886625</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1488543133506115</v>
+        <v>0.1727097812849751</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05592579067127645</v>
+        <v>0.04868054730368122</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5144367764.997973</v>
+        <v>3517973679.364534</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1785355410577608</v>
+        <v>0.135449211388413</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04643835698427021</v>
+        <v>0.05001359991190097</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>108</v>
+      </c>
+      <c r="J46" t="n">
+        <v>189</v>
+      </c>
+      <c r="K46" t="n">
+        <v>104.4526094048753</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3513394606.187</v>
+        <v>4835014532.844624</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1463301037508628</v>
+        <v>0.1865221650701677</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04491479537185646</v>
+        <v>0.03774164413142786</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>84</v>
+      </c>
+      <c r="J47" t="n">
+        <v>190</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2892121276.427182</v>
+        <v>4432508756.150711</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08057451936488391</v>
+        <v>0.1005679218862075</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03566008585839243</v>
+        <v>0.03358689688874842</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>90</v>
+      </c>
+      <c r="J48" t="n">
+        <v>190</v>
+      </c>
+      <c r="K48" t="n">
+        <v>127.4389502998124</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1575555633.448447</v>
+        <v>1982113571.373738</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1584342619708568</v>
+        <v>0.1771326177727953</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04352466535338124</v>
+        <v>0.04411471612938977</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3952602050.840469</v>
+        <v>3305454360.062135</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1075035510584665</v>
+        <v>0.1583365229674336</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03495802682219156</v>
+        <v>0.03717481038697319</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>60</v>
+      </c>
+      <c r="J50" t="n">
+        <v>188</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1156695368.443751</v>
+        <v>1482146103.317704</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1386058395266999</v>
+        <v>0.1906981165169326</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04368235485478031</v>
+        <v>0.03965349599904701</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3272585784.201146</v>
+        <v>3634734138.797929</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1374005165177753</v>
+        <v>0.1158462350794249</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05435144072418182</v>
+        <v>0.05936344463673174</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>133</v>
+      </c>
+      <c r="J52" t="n">
+        <v>189</v>
+      </c>
+      <c r="K52" t="n">
+        <v>109.7572548284452</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2479095591.210246</v>
+        <v>2839948713.060798</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1289000828543569</v>
+        <v>0.138147483188102</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02822902143857672</v>
+        <v>0.03556085003694117</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4344694002.286258</v>
+        <v>3549897230.283054</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1332578869503872</v>
+        <v>0.1635857780003478</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03449670617263317</v>
+        <v>0.04092219260084311</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>96</v>
+      </c>
+      <c r="J54" t="n">
+        <v>189</v>
+      </c>
+      <c r="K54" t="n">
+        <v>108.4236129330724</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3448531434.744005</v>
+        <v>3335004069.21481</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1564130483291546</v>
+        <v>0.1745690897016277</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03148584401162313</v>
+        <v>0.02429871243613076</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>85</v>
+      </c>
+      <c r="J55" t="n">
+        <v>186</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1342576993.336841</v>
+        <v>1219837236.818718</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1340521436563927</v>
+        <v>0.1262441602224704</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03667767608357818</v>
+        <v>0.04548720922258538</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2837262791.333441</v>
+        <v>4234349487.09057</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1760135940071292</v>
+        <v>0.177038486431762</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02502025174607355</v>
+        <v>0.02370211359059103</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>76</v>
+      </c>
+      <c r="J57" t="n">
+        <v>189</v>
+      </c>
+      <c r="K57" t="n">
+        <v>121.3770247738522</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1605066399.48888</v>
+        <v>1519332413.691065</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1408434675052603</v>
+        <v>0.1953366359803054</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03868814983452958</v>
+        <v>0.03858278254451755</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3318659762.57668</v>
+        <v>5147196777.789048</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1097793434517521</v>
+        <v>0.1263110593163892</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03285386322433693</v>
+        <v>0.0432713843960476</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>91</v>
+      </c>
+      <c r="J59" t="n">
+        <v>190</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2551,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3365335338.735059</v>
+        <v>2898601367.66603</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1833178029774891</v>
+        <v>0.1751066793222249</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03087767182124662</v>
+        <v>0.03339001198185594</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
+      <c r="J60" t="n">
+        <v>189</v>
+      </c>
+      <c r="K60" t="n">
+        <v>72.71190899075947</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3117643572.893744</v>
+        <v>3302678398.601657</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1647569357141776</v>
+        <v>0.1641927582717777</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02950223847827415</v>
+        <v>0.02088884417830419</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1778892963.72423</v>
+        <v>1981143908.345146</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1450469766881629</v>
+        <v>0.1925600941762551</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03102075696601508</v>
+        <v>0.04841158016729635</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3671687448.396935</v>
+        <v>4668449923.459114</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07512506794268145</v>
+        <v>0.09608786386869933</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04306470102870254</v>
+        <v>0.03851325923042598</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>93</v>
+      </c>
+      <c r="J63" t="n">
+        <v>190</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5238675370.191468</v>
+        <v>4625090425.799476</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1774392167032117</v>
+        <v>0.1501109442825024</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02572823465362238</v>
+        <v>0.02449131913479131</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>93</v>
+      </c>
+      <c r="J64" t="n">
+        <v>190</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3921124436.298195</v>
+        <v>3922812044.588238</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1391121843093033</v>
+        <v>0.1223642992176632</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0203283198508487</v>
+        <v>0.03167746624934056</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>154</v>
+      </c>
+      <c r="J65" t="n">
+        <v>190</v>
+      </c>
+      <c r="K65" t="n">
+        <v>126.2972170703683</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4516602687.073769</v>
+        <v>5432150678.044567</v>
       </c>
       <c r="F66" t="n">
-        <v>0.118157464815477</v>
+        <v>0.1257860988120853</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04817590521391193</v>
+        <v>0.03841106890105538</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>93</v>
+      </c>
+      <c r="J66" t="n">
+        <v>190</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3238390556.077583</v>
+        <v>2495499053.611842</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06908499758902621</v>
+        <v>0.07121557798659203</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03404760052313916</v>
+        <v>0.04663971907876049</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4079535722.156067</v>
+        <v>5288611506.729043</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1359108208542189</v>
+        <v>0.1040261901220906</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04494004339401109</v>
+        <v>0.04126966180644137</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>96</v>
+      </c>
+      <c r="J68" t="n">
+        <v>189</v>
+      </c>
+      <c r="K68" t="n">
+        <v>119.5406707524445</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2136672302.527226</v>
+        <v>2285959921.595775</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1255541850328383</v>
+        <v>0.1511431046295921</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04350372225281522</v>
+        <v>0.05764557891223282</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2292812023.566874</v>
+        <v>3586042149.226886</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09048215712694067</v>
+        <v>0.08175906478359417</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03091865006712023</v>
+        <v>0.03700212988359558</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>190</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3801516092.682421</v>
+        <v>5355841604.058175</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1300045261243785</v>
+        <v>0.1315263350604127</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02182433438948778</v>
+        <v>0.02218556260667884</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>147</v>
+      </c>
+      <c r="J71" t="n">
+        <v>190</v>
+      </c>
+      <c r="K71" t="n">
+        <v>125.420144676873</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2262485499.333408</v>
+        <v>1922283807.158706</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1063906734236603</v>
+        <v>0.09089944324775648</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03369625172306889</v>
+        <v>0.0392064943722202</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2432630438.409758</v>
+        <v>2422461656.382679</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09560839704108236</v>
+        <v>0.08999660236602096</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04905533715373431</v>
+        <v>0.0349930772131785</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3072720317.522297</v>
+        <v>3583144109.961556</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1594307306326063</v>
+        <v>0.1778327976370684</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02958142868328595</v>
+        <v>0.03257935261596342</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>55</v>
+      </c>
+      <c r="J74" t="n">
+        <v>189</v>
+      </c>
+      <c r="K74" t="n">
+        <v>112.2018554950675</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2069980010.944968</v>
+        <v>1945754174.380867</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1650693895344518</v>
+        <v>0.1608509680207288</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02479471191712817</v>
+        <v>0.02421194436306235</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4836024125.592125</v>
+        <v>3577807992.25974</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09287793596023303</v>
+        <v>0.09404688456651554</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03121900627473198</v>
+        <v>0.03020532023944503</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>86</v>
+      </c>
+      <c r="J76" t="n">
+        <v>190</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1402479011.985703</v>
+        <v>2129818313.810068</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1576123710276754</v>
+        <v>0.164256423216104</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02714750477443005</v>
+        <v>0.02823258321277707</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3130502736.398255</v>
+        <v>3444570574.420191</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1064937210613995</v>
+        <v>0.1116949841562027</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05508933163031481</v>
+        <v>0.05153129960800022</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>97</v>
+      </c>
+      <c r="J78" t="n">
+        <v>189</v>
+      </c>
+      <c r="K78" t="n">
+        <v>101.0314287840701</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1253858324.87227</v>
+        <v>1498437826.642041</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1509339538599969</v>
+        <v>0.1212334839386365</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02459325680970442</v>
+        <v>0.03286126315001062</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3929524213.525925</v>
+        <v>4589842545.709334</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09426593840371279</v>
+        <v>0.1094359940562111</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02755937915544895</v>
+        <v>0.0270560357489389</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>93</v>
+      </c>
+      <c r="J80" t="n">
+        <v>189</v>
+      </c>
+      <c r="K80" t="n">
+        <v>90.97473526982159</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3393433982.99336</v>
+        <v>4379079396.285565</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08660392804423515</v>
+        <v>0.09614682276709725</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02160606170767761</v>
+        <v>0.02100835546151415</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>87</v>
+      </c>
+      <c r="J81" t="n">
+        <v>189</v>
+      </c>
+      <c r="K81" t="n">
+        <v>108.2011065313715</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5055558153.359489</v>
+        <v>5507262388.275201</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1704896855760765</v>
+        <v>0.1876554781713927</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02577847524922495</v>
+        <v>0.02724131006150422</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>140</v>
+      </c>
+      <c r="J82" t="n">
+        <v>190</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1671495699.185587</v>
+        <v>2447910284.808831</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1018573410082139</v>
+        <v>0.1344104172018724</v>
       </c>
       <c r="G83" t="n">
-        <v>0.034794954083381</v>
+        <v>0.04288258308908766</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2594225876.431746</v>
+        <v>2132570417.437891</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1177015007054574</v>
+        <v>0.1150800665570521</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04495224233291119</v>
+        <v>0.03488770105577624</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2599357680.547658</v>
+        <v>3116831038.515924</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1529819631048145</v>
+        <v>0.1425099797012768</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04631412250617868</v>
+        <v>0.05611232562494396</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2702465068.272705</v>
+        <v>2740260136.179393</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1239461007473945</v>
+        <v>0.1444372760224137</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02282730733829446</v>
+        <v>0.01955565589370883</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1327466947.48428</v>
+        <v>1061852158.94445</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1586934475538799</v>
+        <v>0.1146627271288457</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04144728930567625</v>
+        <v>0.0419685160515988</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2465946818.106498</v>
+        <v>2828152936.409947</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1468488501061751</v>
+        <v>0.169453148533918</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02520874956307918</v>
+        <v>0.02904584626823488</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="n">
+        <v>185</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2662944459.610536</v>
+        <v>3517227556.002121</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1422181364812508</v>
+        <v>0.1485533595025094</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02950562023712976</v>
+        <v>0.02818560125794211</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1777462268.618885</v>
+        <v>1374836973.841626</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1273910583081336</v>
+        <v>0.1304166149500433</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0544619492637586</v>
+        <v>0.04424888420549541</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1657786011.396009</v>
+        <v>1966105251.271364</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1364266979532938</v>
+        <v>0.1238249234099767</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04525456201487976</v>
+        <v>0.05871805446521466</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2871819443.132424</v>
+        <v>2068468655.397525</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08180838080597569</v>
+        <v>0.07055338627798986</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03255185204655759</v>
+        <v>0.0422533389115061</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3035155593.61767</v>
+        <v>3844841385.114882</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1045437200011941</v>
+        <v>0.1200380887995779</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04556828401993577</v>
+        <v>0.05107350613351756</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>85</v>
+      </c>
+      <c r="J93" t="n">
+        <v>190</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1961125464.292064</v>
+        <v>2250857087.238561</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1654413253714831</v>
+        <v>0.1067516319275994</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03034544118138519</v>
+        <v>0.03195624608377727</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2941298558.262179</v>
+        <v>2802488823.798724</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1060156511202088</v>
+        <v>0.1185093372233523</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03325995248701651</v>
+        <v>0.04601447002462822</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2245413427.538986</v>
+        <v>1714713486.8601</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1065137119858575</v>
+        <v>0.1040694192185467</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02875539292171825</v>
+        <v>0.03192344459414195</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3718639495.151101</v>
+        <v>4182704079.682297</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1288507739299806</v>
+        <v>0.1650946162427034</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02414496312374597</v>
+        <v>0.02629279220764364</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>92</v>
+      </c>
+      <c r="J97" t="n">
+        <v>189</v>
+      </c>
+      <c r="K97" t="n">
+        <v>119.9389626339988</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3579951045.864494</v>
+        <v>3495329072.628436</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09608272507411608</v>
+        <v>0.1201545212690875</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0207177932249589</v>
+        <v>0.02654361933390133</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>46</v>
+      </c>
+      <c r="J98" t="n">
+        <v>185</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2081457913.449583</v>
+        <v>2994372566.707319</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1121733788640025</v>
+        <v>0.1083410315825123</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02253857459289154</v>
+        <v>0.02475302735746306</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4749017057.936702</v>
+        <v>3840462523.801838</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1303132663110355</v>
+        <v>0.1636062973340523</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0240276775013507</v>
+        <v>0.02019713567888196</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>79</v>
+      </c>
+      <c r="J100" t="n">
+        <v>189</v>
+      </c>
+      <c r="K100" t="n">
+        <v>119.0250291806502</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3447307909.464097</v>
+        <v>2636923710.911809</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1603412877068078</v>
+        <v>0.2135806311297531</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04039203243752641</v>
+        <v>0.05407075411195932</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
